--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidsp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidsp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4122E092-EC62-4765-A10F-E725C72C5CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1660E-2C7F-4737-BA62-F46FE7E710A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{52B0868B-AF3B-46F8-9794-CC1DFD358646}"/>
+    <workbookView xWindow="4700" yWindow="680" windowWidth="18000" windowHeight="11170" xr2:uid="{52B0868B-AF3B-46F8-9794-CC1DFD358646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Meeting Times</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Dane</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,6 +440,15 @@
       <c r="A3" s="1">
         <v>45245</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
